--- a/experiment/output/results/VLCS/GENIE/SDG/0_2_3.xlsx
+++ b/experiment/output/results/VLCS/GENIE/SDG/0_2_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,22 +488,118 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>250214_21-36-51_resnet50_sgd</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>55.464</v>
+      </c>
+      <c r="E2" t="n">
+        <v>43.693</v>
+      </c>
+      <c r="F2" t="n">
+        <v>53.613</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GENIE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>250214_18-36-15_resnet50_sgd</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>9.196999999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.196999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.196999999999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GENIE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>250215_00-30-15_resnet50_sgd</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>71.791</v>
+      </c>
+      <c r="E4" t="n">
+        <v>69.012</v>
+      </c>
+      <c r="F4" t="n">
+        <v>69.09099999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GENIE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>250126_14-31-28_resnet50_sgd</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D5" t="n">
         <v>76.55500000000001</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E5" t="n">
         <v>76.55500000000001</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F5" t="n">
         <v>68.848</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G5" t="n">
         <v>2</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>

--- a/experiment/output/results/VLCS/GENIE/SDG/0_2_3.xlsx
+++ b/experiment/output/results/VLCS/GENIE/SDG/0_2_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,118 +488,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250214_21-36-51_resnet50_sgd</t>
+          <t>250126_14-31-28_resnet50_sgd</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>55.464</v>
+        <v>76.55500000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>43.693</v>
+        <v>76.55500000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>53.613</v>
+        <v>68.848</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GENIE</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0_2_3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>250214_18-36-15_resnet50_sgd</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>9.196999999999999</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.196999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9.196999999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GENIE</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0_2_3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>250215_00-30-15_resnet50_sgd</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>71.791</v>
-      </c>
-      <c r="E4" t="n">
-        <v>69.012</v>
-      </c>
-      <c r="F4" t="n">
-        <v>69.09099999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GENIE</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0_2_3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>250126_14-31-28_resnet50_sgd</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>76.55500000000001</v>
-      </c>
-      <c r="E5" t="n">
-        <v>76.55500000000001</v>
-      </c>
-      <c r="F5" t="n">
-        <v>68.848</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
